--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>472.402812655728</v>
+        <v>807.5552873333332</v>
       </c>
       <c r="H2">
-        <v>472.402812655728</v>
+        <v>2422.665862</v>
       </c>
       <c r="I2">
-        <v>0.1239586557120549</v>
+        <v>0.1778154119443224</v>
       </c>
       <c r="J2">
-        <v>0.1239586557120549</v>
+        <v>0.1875399841739631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>8146.039014038092</v>
+        <v>17027.27012365655</v>
       </c>
       <c r="R2">
-        <v>8146.039014038092</v>
+        <v>153245.4311129089</v>
       </c>
       <c r="S2">
-        <v>0.003819160092725745</v>
+        <v>0.006012509320723069</v>
       </c>
       <c r="T2">
-        <v>0.003819160092725745</v>
+        <v>0.00658100772943657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>472.402812655728</v>
+        <v>807.5552873333332</v>
       </c>
       <c r="H3">
-        <v>472.402812655728</v>
+        <v>2422.665862</v>
       </c>
       <c r="I3">
-        <v>0.1239586557120549</v>
+        <v>0.1778154119443224</v>
       </c>
       <c r="J3">
-        <v>0.1239586557120549</v>
+        <v>0.1875399841739631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>36293.4095726206</v>
+        <v>65463.10971375788</v>
       </c>
       <c r="R3">
-        <v>36293.4095726206</v>
+        <v>589167.987423821</v>
       </c>
       <c r="S3">
-        <v>0.01701567365806075</v>
+        <v>0.02311571699157154</v>
       </c>
       <c r="T3">
-        <v>0.01701567365806075</v>
+        <v>0.02530136821055371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>472.402812655728</v>
+        <v>807.5552873333332</v>
       </c>
       <c r="H4">
-        <v>472.402812655728</v>
+        <v>2422.665862</v>
       </c>
       <c r="I4">
-        <v>0.1239586557120549</v>
+        <v>0.1778154119443224</v>
       </c>
       <c r="J4">
-        <v>0.1239586557120549</v>
+        <v>0.1875399841739631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>62160.93651316934</v>
+        <v>110634.6040983043</v>
       </c>
       <c r="R4">
-        <v>62160.93651316934</v>
+        <v>995711.436884739</v>
       </c>
       <c r="S4">
-        <v>0.02914331341262158</v>
+        <v>0.03906624981601653</v>
       </c>
       <c r="T4">
-        <v>0.02914331341262158</v>
+        <v>0.04276006543776738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>472.402812655728</v>
+        <v>807.5552873333332</v>
       </c>
       <c r="H5">
-        <v>472.402812655728</v>
+        <v>2422.665862</v>
       </c>
       <c r="I5">
-        <v>0.1239586557120549</v>
+        <v>0.1778154119443224</v>
       </c>
       <c r="J5">
-        <v>0.1239586557120549</v>
+        <v>0.1875399841739631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>135634.6184716771</v>
+        <v>255423.9318685726</v>
       </c>
       <c r="R5">
-        <v>135634.6184716771</v>
+        <v>2298815.386817154</v>
       </c>
       <c r="S5">
-        <v>0.06359045435044232</v>
+        <v>0.09019289410120267</v>
       </c>
       <c r="T5">
-        <v>0.06359045435044232</v>
+        <v>0.09872086703873695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>472.402812655728</v>
+        <v>807.5552873333332</v>
       </c>
       <c r="H6">
-        <v>472.402812655728</v>
+        <v>2422.665862</v>
       </c>
       <c r="I6">
-        <v>0.1239586557120549</v>
+        <v>0.1778154119443224</v>
       </c>
       <c r="J6">
-        <v>0.1239586557120549</v>
+        <v>0.1875399841739631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>22161.36134689707</v>
+        <v>55019.70917725422</v>
       </c>
       <c r="R6">
-        <v>22161.36134689707</v>
+        <v>330118.2550635253</v>
       </c>
       <c r="S6">
-        <v>0.0103900541982045</v>
+        <v>0.01942804171480859</v>
       </c>
       <c r="T6">
-        <v>0.0103900541982045</v>
+        <v>0.01417667575746842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1175.29904771766</v>
+        <v>1263.935485666667</v>
       </c>
       <c r="H7">
-        <v>1175.29904771766</v>
+        <v>3791.806457</v>
       </c>
       <c r="I7">
-        <v>0.3083988623939724</v>
+        <v>0.2783056622624737</v>
       </c>
       <c r="J7">
-        <v>0.3083988623939724</v>
+        <v>0.2935259600139241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>20266.66996762173</v>
+        <v>26650.02789392675</v>
       </c>
       <c r="R7">
-        <v>20266.66996762173</v>
+        <v>239850.2510453407</v>
       </c>
       <c r="S7">
-        <v>0.009501753799533462</v>
+        <v>0.009410406949916572</v>
       </c>
       <c r="T7">
-        <v>0.009501753799533462</v>
+        <v>0.01030018542525882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1175.29904771766</v>
+        <v>1263.935485666667</v>
       </c>
       <c r="H8">
-        <v>1175.29904771766</v>
+        <v>3791.806457</v>
       </c>
       <c r="I8">
-        <v>0.3083988623939724</v>
+        <v>0.2783056622624737</v>
       </c>
       <c r="J8">
-        <v>0.3083988623939724</v>
+        <v>0.2935259600139241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>90294.99521674955</v>
+        <v>102458.8020995223</v>
       </c>
       <c r="R8">
-        <v>90294.99521674955</v>
+        <v>922129.2188957006</v>
       </c>
       <c r="S8">
-        <v>0.04233358589498395</v>
+        <v>0.03617928758630669</v>
       </c>
       <c r="T8">
-        <v>0.04233358589498395</v>
+        <v>0.03960013341357434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1175.29904771766</v>
+        <v>1263.935485666667</v>
       </c>
       <c r="H9">
-        <v>1175.29904771766</v>
+        <v>3791.806457</v>
       </c>
       <c r="I9">
-        <v>0.3083988623939724</v>
+        <v>0.2783056622624737</v>
       </c>
       <c r="J9">
-        <v>0.3083988623939724</v>
+        <v>0.2935259600139241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>154651.2584852198</v>
+        <v>173158.4255045688</v>
       </c>
       <c r="R9">
-        <v>154651.2584852198</v>
+        <v>1558425.82954112</v>
       </c>
       <c r="S9">
-        <v>0.07250614853166271</v>
+        <v>0.06114407299273968</v>
       </c>
       <c r="T9">
-        <v>0.07250614853166271</v>
+        <v>0.06692540427131707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1175.29904771766</v>
+        <v>1263.935485666667</v>
       </c>
       <c r="H10">
-        <v>1175.29904771766</v>
+        <v>3791.806457</v>
       </c>
       <c r="I10">
-        <v>0.3083988623939724</v>
+        <v>0.2783056622624737</v>
       </c>
       <c r="J10">
-        <v>0.3083988623939724</v>
+        <v>0.2935259600139241</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>337447.690099771</v>
+        <v>399773.7076841602</v>
       </c>
       <c r="R10">
-        <v>337447.690099771</v>
+        <v>3597963.369157441</v>
       </c>
       <c r="S10">
-        <v>0.1582077803937097</v>
+        <v>0.1411643279383683</v>
       </c>
       <c r="T10">
-        <v>0.1582077803937097</v>
+        <v>0.1545117826397643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1175.29904771766</v>
+        <v>1263.935485666667</v>
       </c>
       <c r="H11">
-        <v>1175.29904771766</v>
+        <v>3791.806457</v>
       </c>
       <c r="I11">
-        <v>0.3083988623939724</v>
+        <v>0.2783056622624737</v>
       </c>
       <c r="J11">
-        <v>0.3083988623939724</v>
+        <v>0.2935259600139241</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>55135.63041826495</v>
+        <v>86113.43883318182</v>
       </c>
       <c r="R11">
-        <v>55135.63041826495</v>
+        <v>516680.6329990909</v>
       </c>
       <c r="S11">
-        <v>0.02584959377408262</v>
+        <v>0.03040756679514255</v>
       </c>
       <c r="T11">
-        <v>0.02584959377408262</v>
+        <v>0.02218845426400949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>646.213191190856</v>
+        <v>660.499532</v>
       </c>
       <c r="H12">
-        <v>646.213191190856</v>
+        <v>1981.498596</v>
       </c>
       <c r="I12">
-        <v>0.169566557051371</v>
+        <v>0.1454352391889347</v>
       </c>
       <c r="J12">
-        <v>0.169566557051371</v>
+        <v>0.1533889675680624</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>11143.19755471706</v>
+        <v>13926.60555173919</v>
       </c>
       <c r="R12">
-        <v>11143.19755471706</v>
+        <v>125339.4499656527</v>
       </c>
       <c r="S12">
-        <v>0.005224337292393859</v>
+        <v>0.004917631838678081</v>
       </c>
       <c r="T12">
-        <v>0.005224337292393859</v>
+        <v>0.005382606731156272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>646.213191190856</v>
+        <v>660.499532</v>
       </c>
       <c r="H13">
-        <v>646.213191190856</v>
+        <v>1981.498596</v>
       </c>
       <c r="I13">
-        <v>0.169566557051371</v>
+        <v>0.1454352391889347</v>
       </c>
       <c r="J13">
-        <v>0.169566557051371</v>
+        <v>0.1533889675680624</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>49646.78319180948</v>
+        <v>53542.28250053462</v>
       </c>
       <c r="R13">
-        <v>49646.78319180948</v>
+        <v>481880.5425048117</v>
       </c>
       <c r="S13">
-        <v>0.02327622207205395</v>
+        <v>0.01890634671614173</v>
       </c>
       <c r="T13">
-        <v>0.02327622207205395</v>
+        <v>0.02069399101727683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>646.213191190856</v>
+        <v>660.499532</v>
       </c>
       <c r="H14">
-        <v>646.213191190856</v>
+        <v>1981.498596</v>
       </c>
       <c r="I14">
-        <v>0.169566557051371</v>
+        <v>0.1454352391889347</v>
       </c>
       <c r="J14">
-        <v>0.169566557051371</v>
+        <v>0.1533889675680624</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>85031.70615298898</v>
+        <v>90488.05125310586</v>
       </c>
       <c r="R14">
-        <v>85031.70615298898</v>
+        <v>814392.4612779528</v>
       </c>
       <c r="S14">
-        <v>0.03986596408343191</v>
+        <v>0.03195228874753593</v>
       </c>
       <c r="T14">
-        <v>0.03986596408343191</v>
+        <v>0.03497346083039998</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>646.213191190856</v>
+        <v>660.499532</v>
       </c>
       <c r="H15">
-        <v>646.213191190856</v>
+        <v>1981.498596</v>
       </c>
       <c r="I15">
-        <v>0.169566557051371</v>
+        <v>0.1454352391889347</v>
       </c>
       <c r="J15">
-        <v>0.169566557051371</v>
+        <v>0.1533889675680624</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>185538.4373048016</v>
+        <v>208911.2536404644</v>
       </c>
       <c r="R15">
-        <v>185538.4373048016</v>
+        <v>1880201.28276418</v>
       </c>
       <c r="S15">
-        <v>0.08698718410261252</v>
+        <v>0.07376877506466049</v>
       </c>
       <c r="T15">
-        <v>0.08698718410261252</v>
+        <v>0.08074380479017951</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>646.213191190856</v>
+        <v>660.499532</v>
       </c>
       <c r="H16">
-        <v>646.213191190856</v>
+        <v>1981.498596</v>
       </c>
       <c r="I16">
-        <v>0.169566557051371</v>
+        <v>0.1454352391889347</v>
       </c>
       <c r="J16">
-        <v>0.169566557051371</v>
+        <v>0.1533889675680624</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>30315.15404534371</v>
+        <v>45000.62439359934</v>
       </c>
       <c r="R16">
-        <v>30315.15404534371</v>
+        <v>270003.746361596</v>
       </c>
       <c r="S16">
-        <v>0.01421284950087875</v>
+        <v>0.01589019682191843</v>
       </c>
       <c r="T16">
-        <v>0.01421284950087875</v>
+        <v>0.01159510419904985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1015.40448244363</v>
+        <v>1103.065348333333</v>
       </c>
       <c r="H17">
-        <v>1015.40448244363</v>
+        <v>3309.196045</v>
       </c>
       <c r="I17">
-        <v>0.26644247509897</v>
+        <v>0.2428837039295341</v>
       </c>
       <c r="J17">
-        <v>0.26644247509897</v>
+        <v>0.2561668051885238</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>17509.47349892895</v>
+        <v>23258.08764392905</v>
       </c>
       <c r="R17">
-        <v>17509.47349892895</v>
+        <v>209322.7887953614</v>
       </c>
       <c r="S17">
-        <v>0.008209079568181375</v>
+        <v>0.008212676942678784</v>
       </c>
       <c r="T17">
-        <v>0.008209079568181375</v>
+        <v>0.008989206927771505</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1015.40448244363</v>
+        <v>1103.065348333333</v>
       </c>
       <c r="H18">
-        <v>1015.40448244363</v>
+        <v>3309.196045</v>
       </c>
       <c r="I18">
-        <v>0.26644247509897</v>
+        <v>0.2428837039295341</v>
       </c>
       <c r="J18">
-        <v>0.26644247509897</v>
+        <v>0.2561668051885238</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>78010.73527912801</v>
+        <v>89418.13526828351</v>
       </c>
       <c r="R18">
-        <v>78010.73527912801</v>
+        <v>804763.2174145516</v>
       </c>
       <c r="S18">
-        <v>0.0365742769545794</v>
+        <v>0.03157449008783195</v>
       </c>
       <c r="T18">
-        <v>0.0365742769545794</v>
+        <v>0.03455994032389311</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1015.40448244363</v>
+        <v>1103.065348333333</v>
       </c>
       <c r="H19">
-        <v>1015.40448244363</v>
+        <v>3309.196045</v>
       </c>
       <c r="I19">
-        <v>0.26644247509897</v>
+        <v>0.2428837039295341</v>
       </c>
       <c r="J19">
-        <v>0.26644247509897</v>
+        <v>0.2561668051885238</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>133611.5956074224</v>
+        <v>151119.3103699455</v>
       </c>
       <c r="R19">
-        <v>133611.5956074224</v>
+        <v>1360073.793329509</v>
       </c>
       <c r="S19">
-        <v>0.0626419874726728</v>
+        <v>0.05336182814637932</v>
       </c>
       <c r="T19">
-        <v>0.0626419874726728</v>
+        <v>0.05840732791512006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1015.40448244363</v>
+        <v>1103.065348333333</v>
       </c>
       <c r="H20">
-        <v>1015.40448244363</v>
+        <v>3309.196045</v>
       </c>
       <c r="I20">
-        <v>0.26644247509897</v>
+        <v>0.2428837039295341</v>
       </c>
       <c r="J20">
-        <v>0.26644247509897</v>
+        <v>0.2561668051885238</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>291539.3301670313</v>
+        <v>348891.6397410441</v>
       </c>
       <c r="R20">
-        <v>291539.3301670313</v>
+        <v>3140024.757669397</v>
       </c>
       <c r="S20">
-        <v>0.1366842674476681</v>
+        <v>0.1231973311418229</v>
       </c>
       <c r="T20">
-        <v>0.1366842674476681</v>
+        <v>0.1348459595224028</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1015.40448244363</v>
+        <v>1103.065348333333</v>
       </c>
       <c r="H21">
-        <v>1015.40448244363</v>
+        <v>3309.196045</v>
       </c>
       <c r="I21">
-        <v>0.26644247509897</v>
+        <v>0.2428837039295341</v>
       </c>
       <c r="J21">
-        <v>0.26644247509897</v>
+        <v>0.2561668051885238</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N21">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O21">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P21">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q21">
-        <v>47634.65636918542</v>
+        <v>75153.1636542373</v>
       </c>
       <c r="R21">
-        <v>47634.65636918542</v>
+        <v>450918.9819254238</v>
       </c>
       <c r="S21">
-        <v>0.02233286365586837</v>
+        <v>0.0265373776108212</v>
       </c>
       <c r="T21">
-        <v>0.02233286365586837</v>
+        <v>0.01936437049933627</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>501.651228316932</v>
+        <v>706.48143</v>
       </c>
       <c r="H22">
-        <v>501.651228316932</v>
+        <v>1412.96286</v>
       </c>
       <c r="I22">
-        <v>0.1316334497436317</v>
+        <v>0.155559982674735</v>
       </c>
       <c r="J22">
-        <v>0.1316334497436317</v>
+        <v>0.1093782830555267</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N22">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O22">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P22">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q22">
-        <v>8650.394044727984</v>
+        <v>14896.13198581137</v>
       </c>
       <c r="R22">
-        <v>8650.394044727984</v>
+        <v>89376.79191486821</v>
       </c>
       <c r="S22">
-        <v>0.004055620119796184</v>
+        <v>0.00525998188535101</v>
       </c>
       <c r="T22">
-        <v>0.004055620119796184</v>
+        <v>0.003838217910657463</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>501.651228316932</v>
+        <v>706.48143</v>
       </c>
       <c r="H23">
-        <v>501.651228316932</v>
+        <v>1412.96286</v>
       </c>
       <c r="I23">
-        <v>0.1316334497436317</v>
+        <v>0.155559982674735</v>
       </c>
       <c r="J23">
-        <v>0.1316334497436317</v>
+        <v>0.1093782830555267</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N23">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P23">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q23">
-        <v>38540.48495088668</v>
+        <v>57269.72764371569</v>
       </c>
       <c r="R23">
-        <v>38540.48495088668</v>
+        <v>343618.3658622942</v>
       </c>
       <c r="S23">
-        <v>0.0180691845233084</v>
+        <v>0.02022254705260807</v>
       </c>
       <c r="T23">
-        <v>0.0180691845233084</v>
+        <v>0.01475642768135768</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>501.651228316932</v>
+        <v>706.48143</v>
       </c>
       <c r="H24">
-        <v>501.651228316932</v>
+        <v>1412.96286</v>
       </c>
       <c r="I24">
-        <v>0.1316334497436317</v>
+        <v>0.155559982674735</v>
       </c>
       <c r="J24">
-        <v>0.1316334497436317</v>
+        <v>0.1093782830555267</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N24">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O24">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P24">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q24">
-        <v>66009.57767346631</v>
+        <v>96787.54450231393</v>
       </c>
       <c r="R24">
-        <v>66009.57767346631</v>
+        <v>580725.2670138836</v>
       </c>
       <c r="S24">
-        <v>0.03094769670925173</v>
+        <v>0.03417670649633722</v>
       </c>
       <c r="T24">
-        <v>0.03094769670925173</v>
+        <v>0.02493880204546959</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>501.651228316932</v>
+        <v>706.48143</v>
       </c>
       <c r="H25">
-        <v>501.651228316932</v>
+        <v>1412.96286</v>
       </c>
       <c r="I25">
-        <v>0.1316334497436317</v>
+        <v>0.155559982674735</v>
       </c>
       <c r="J25">
-        <v>0.1316334497436317</v>
+        <v>0.1093782830555267</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N25">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O25">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P25">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q25">
-        <v>144032.3197402332</v>
+        <v>223454.9974139997</v>
       </c>
       <c r="R25">
-        <v>144032.3197402332</v>
+        <v>1340729.984483999</v>
       </c>
       <c r="S25">
-        <v>0.06752760288364126</v>
+        <v>0.07890432494209502</v>
       </c>
       <c r="T25">
-        <v>0.06752760288364126</v>
+        <v>0.05757662285197689</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>501.651228316932</v>
+        <v>706.48143</v>
       </c>
       <c r="H26">
-        <v>501.651228316932</v>
+        <v>1412.96286</v>
       </c>
       <c r="I26">
-        <v>0.1316334497436317</v>
+        <v>0.155559982674735</v>
       </c>
       <c r="J26">
-        <v>0.1316334497436317</v>
+        <v>0.1093782830555267</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N26">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O26">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P26">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q26">
-        <v>23533.46305951866</v>
+        <v>48133.42619065314</v>
       </c>
       <c r="R26">
-        <v>23533.46305951866</v>
+        <v>192533.7047626126</v>
       </c>
       <c r="S26">
-        <v>0.01103334550763409</v>
+        <v>0.01699642229834371</v>
       </c>
       <c r="T26">
-        <v>0.01103334550763409</v>
+        <v>0.008268212566065062</v>
       </c>
     </row>
   </sheetData>
